--- a/documentation/budget/effort_commitment - week by week.xlsx
+++ b/documentation/budget/effort_commitment - week by week.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC731E-B143-43CD-9AA4-CB300E257629}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092DFF3-98E1-47C5-A2ED-0E35EE05C840}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4048D-0B48-4A1A-A71C-86F5C3BC7E01}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S12" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1759,10 +1759,10 @@
         <v>23</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>16</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC29" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>40.700000000000003</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>156.57499999999999</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1846,10 +1846,10 @@
         <v>23</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>16</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>40.700000000000003</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>156.57499999999999</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1933,10 +1933,10 @@
         <v>23</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>16</v>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>40.700000000000003</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>156.57499999999999</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2020,10 +2020,10 @@
         <v>23</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>16</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>40.700000000000003</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>156.57499999999999</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="28" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
@@ -2107,10 +2107,10 @@
         <v>23</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>16</v>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>40.700000000000003</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>156.57499999999999</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="29" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="AC36" s="16">
         <f>SUM(AC24:AC34)</f>
-        <v>203.5</v>
+        <v>152.625</v>
       </c>
       <c r="AD36" s="16">
         <f>SUM(AD24:AD34)</f>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="AF36" s="16">
         <f>SUM(AF24:AF34)</f>
-        <v>782.875</v>
+        <v>732</v>
       </c>
       <c r="AG36" s="16" t="s">
         <v>4</v>

--- a/documentation/budget/effort_commitment - week by week.xlsx
+++ b/documentation/budget/effort_commitment - week by week.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092DFF3-98E1-47C5-A2ED-0E35EE05C840}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F8F5E5-4CC2-4A24-971A-2AFFBC2A7F0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
@@ -1167,7 +1167,7 @@
   <dimension ref="B1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1765,7 +1765,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L24" s="24" t="s">
         <v>16</v>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>70.612499999999997</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE29" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>146.4</v>
+        <v>136.3125</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1852,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>16</v>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>70.612499999999997</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>146.4</v>
+        <v>136.3125</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1939,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>16</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>70.612499999999997</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>146.4</v>
+        <v>136.3125</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2026,7 +2026,7 @@
         <v>23</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>16</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>70.612499999999997</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>146.4</v>
+        <v>136.3125</v>
       </c>
     </row>
     <row r="28" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
@@ -2113,7 +2113,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L28" s="17" t="s">
         <v>16</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>70.612499999999997</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>146.4</v>
+        <v>136.3125</v>
       </c>
     </row>
     <row r="29" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AD36" s="16">
         <f>SUM(AD24:AD34)</f>
-        <v>353.0625</v>
+        <v>302.625</v>
       </c>
       <c r="AE36" s="16">
         <f>SUM(AE24:AE34)</f>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="AF36" s="16">
         <f>SUM(AF24:AF34)</f>
-        <v>732</v>
+        <v>681.5625</v>
       </c>
       <c r="AG36" s="16" t="s">
         <v>4</v>

--- a/documentation/budget/effort_commitment - week by week.xlsx
+++ b/documentation/budget/effort_commitment - week by week.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F8F5E5-4CC2-4A24-971A-2AFFBC2A7F0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FF897-E14A-416F-957D-07BBDD02E74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4048D-0B48-4A1A-A71C-86F5C3BC7E01}">
   <dimension ref="B1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="P12" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1768,25 +1768,25 @@
         <v>23</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="24" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R24" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S24" s="24" t="s">
         <v>16</v>
@@ -1798,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="W24" s="24" t="s">
         <v>16</v>
@@ -1807,14 +1807,14 @@
         <v>16</v>
       </c>
       <c r="Y24" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z24" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC29" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>30.525000000000002</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE29" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>136.3125</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1854,26 +1854,26 @@
       <c r="K25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>12</v>
+      <c r="L25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="S25" s="17" t="s">
         <v>16</v>
@@ -1885,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="W25" s="24" t="s">
         <v>16</v>
@@ -1894,14 +1894,14 @@
         <v>16</v>
       </c>
       <c r="Y25" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z25" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>30.525000000000002</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
@@ -1909,11 +1909,11 @@
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>136.3125</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1941,26 +1941,26 @@
       <c r="K26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>12</v>
+      <c r="L26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="S26" s="17" t="s">
         <v>16</v>
@@ -1972,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="W26" s="24" t="s">
         <v>16</v>
@@ -1981,14 +1981,14 @@
         <v>16</v>
       </c>
       <c r="Y26" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z26" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>30.525000000000002</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
@@ -1996,11 +1996,11 @@
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>136.3125</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2028,26 +2028,26 @@
       <c r="K27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>12</v>
+      <c r="L27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="S27" s="17" t="s">
         <v>16</v>
@@ -2059,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="W27" s="24" t="s">
         <v>16</v>
@@ -2068,14 +2068,14 @@
         <v>16</v>
       </c>
       <c r="Y27" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z27" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>30.525000000000002</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>136.3125</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="28" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
@@ -2115,26 +2115,26 @@
       <c r="K28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>12</v>
+      <c r="L28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="S28" s="17" t="s">
         <v>16</v>
@@ -2146,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="W28" s="24" t="s">
         <v>16</v>
@@ -2155,14 +2155,14 @@
         <v>16</v>
       </c>
       <c r="Y28" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z28" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>30.525000000000002</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
@@ -2170,11 +2170,11 @@
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>136.3125</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="29" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="AC36" s="16">
         <f>SUM(AC24:AC34)</f>
-        <v>152.625</v>
+        <v>50.875</v>
       </c>
       <c r="AD36" s="16">
         <f>SUM(AD24:AD34)</f>
@@ -2559,11 +2559,11 @@
       </c>
       <c r="AE36" s="16">
         <f>SUM(AE24:AE34)</f>
-        <v>226.3125</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="16">
         <f>SUM(AF24:AF34)</f>
-        <v>681.5625</v>
+        <v>353.5</v>
       </c>
       <c r="AG36" s="16" t="s">
         <v>4</v>
@@ -2799,7 +2799,7 @@
         <v>170</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="7"/>
+        <f>SUM(Q42:R42)</f>
         <v>170</v>
       </c>
       <c r="T43" s="3">
@@ -2844,7 +2844,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E30:Z33 S29:Z29 S28:T28 E24:O24 E29:Q29 L28:Q28 L25:O27 E25:K28">
+  <conditionalFormatting sqref="E30:Z33 S29:Z29 S28:T28 E29:Q29 E24:O28">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
@@ -3036,7 +3036,7 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Z24 P26:Q27 S26:T27 R26:R29 P25:T25 U25:Z28">
+  <conditionalFormatting sqref="P24:Z24 R29 S25:T27 P25:R28 U25:Z28">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>

--- a/documentation/budget/effort_commitment - week by week.xlsx
+++ b/documentation/budget/effort_commitment - week by week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\Year 2\Professional Development\Phishing-Email-Button\documentation\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FF897-E14A-416F-957D-07BBDD02E74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318FF62C-5C05-4F00-93FE-81416D153F84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{38A891E2-6AF6-49EC-89C7-71415C5CC21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="B1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P12" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1789,13 +1789,13 @@
         <v>23</v>
       </c>
       <c r="S24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="T24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="U24" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>12</v>
@@ -1810,23 +1810,23 @@
         <v>16</v>
       </c>
       <c r="Z24" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC29" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>10.175000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>60.525000000000006</v>
+        <v>40.35</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE29" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>70.7</v>
+        <v>60.524999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1875,14 +1875,14 @@
       <c r="R25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="T25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U25" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="V25" s="24" t="s">
         <v>12</v>
@@ -1897,23 +1897,23 @@
         <v>16</v>
       </c>
       <c r="Z25" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>60.525000000000006</v>
+        <v>40.35</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>70.7</v>
+        <v>60.524999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1962,14 +1962,14 @@
       <c r="R26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="17" t="s">
+      <c r="S26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="T26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U26" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="V26" s="24" t="s">
         <v>12</v>
@@ -1984,23 +1984,23 @@
         <v>16</v>
       </c>
       <c r="Z26" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>60.525000000000006</v>
+        <v>40.35</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>70.7</v>
+        <v>60.524999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2049,14 +2049,14 @@
       <c r="R27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S27" s="17" t="s">
+      <c r="S27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="T27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U27" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="V27" s="24" t="s">
         <v>12</v>
@@ -2071,26 +2071,26 @@
         <v>16</v>
       </c>
       <c r="Z27" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>60.525000000000006</v>
+        <v>40.35</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>70.7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+        <v>60.524999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2136,14 +2136,14 @@
       <c r="R28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="S28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="T28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U28" s="24" t="s">
-        <v>12</v>
       </c>
       <c r="V28" s="24" t="s">
         <v>12</v>
@@ -2158,26 +2158,26 @@
         <v>16</v>
       </c>
       <c r="Z28" s="25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>60.525000000000006</v>
+        <v>40.35</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.0875</v>
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>70.7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+        <v>60.524999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="R29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="S29" s="28" t="s">
+      <c r="S29" s="24" t="s">
         <v>23</v>
       </c>
       <c r="T29" s="28" t="s">
@@ -2551,19 +2551,19 @@
       </c>
       <c r="AC36" s="16">
         <f>SUM(AC24:AC34)</f>
-        <v>50.875</v>
+        <v>25.4375</v>
       </c>
       <c r="AD36" s="16">
         <f>SUM(AD24:AD34)</f>
-        <v>302.625</v>
+        <v>201.75</v>
       </c>
       <c r="AE36" s="16">
         <f>SUM(AE24:AE34)</f>
-        <v>0</v>
+        <v>75.4375</v>
       </c>
       <c r="AF36" s="16">
         <f>SUM(AF24:AF34)</f>
-        <v>353.5</v>
+        <v>302.625</v>
       </c>
       <c r="AG36" s="16" t="s">
         <v>4</v>
@@ -2844,7 +2844,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E30:Z33 S29:Z29 S28:T28 E29:Q29 E24:O28">
+  <conditionalFormatting sqref="E30:Z33 T29:Z29 E29:Q29 E24:O28">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
@@ -3036,7 +3036,7 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Z24 R29 S25:T27 P25:R28 U25:Z28">
+  <conditionalFormatting sqref="P24:Z24 R29 P25:R28 S25:S29 T25:Z28">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
